--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_439__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_439__Reeval_Halton_Modell_1.2.xlsx
@@ -6089,13 +6089,13 @@
                   <c:v>3.612185716629028</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>90.85756683349609</c:v>
+                  <c:v>90.85755920410156</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.612185716629028</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>60.60815048217773</c:v>
+                  <c:v>60.60814666748047</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>73.63645935058594</c:v>
@@ -6155,7 +6155,7 @@
                   <c:v>43.34244537353516</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>37.29194259643555</c:v>
+                  <c:v>37.29194641113281</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>3.612185716629028</c:v>
@@ -6167,7 +6167,7 @@
                   <c:v>3.612185716629028</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>90.28716278076172</c:v>
+                  <c:v>90.28717041015625</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>3.612185716629028</c:v>
@@ -6239,7 +6239,7 @@
                   <c:v>92.89069366455078</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>28.95637512207031</c:v>
+                  <c:v>28.95638656616211</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>92.89069366455078</c:v>
@@ -6260,7 +6260,7 @@
                   <c:v>3.612185716629028</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>78.03388214111328</c:v>
+                  <c:v>78.03388977050781</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>92.89069366455078</c:v>
@@ -6269,7 +6269,7 @@
                   <c:v>3.612185716629028</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>78.05770111083984</c:v>
+                  <c:v>78.05769348144531</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>3.612185716629028</c:v>
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>90.85756683349609</v>
+        <v>90.85755920410156</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>60.60815048217773</v>
+        <v>60.60814666748047</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>37.29194259643555</v>
+        <v>37.29194641113281</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>90.28716278076172</v>
+        <v>90.28717041015625</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>28.95637512207031</v>
+        <v>28.95638656616211</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>78.03388214111328</v>
+        <v>78.03388977050781</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>92.05110000000001</v>
       </c>
       <c r="F96">
-        <v>78.05770111083984</v>
+        <v>78.05769348144531</v>
       </c>
     </row>
     <row r="97" spans="1:6">
